--- a/websiteUrls.xlsx
+++ b/websiteUrls.xlsx
@@ -1,143 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <x:workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/665277784fd4b0a6/UTM/2021-2022/Winter/backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/665277784fd4b0a6/UTM/2021-2022/Winter/backup2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BCB7F2B7-6208-4E8C-ACE6-6886E05883D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8426B977-3460-4F6F-A279-7E1047A86F42}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14145" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="websiteUrls" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="162913"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{BCB7F2B7-6208-4E8C-ACE6-6886E05883D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{048AB178-8099-403E-957D-0E58F19C3E2F}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="websiteUrls" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <x:si>
-    <x:t>Site Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Site Url</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Results</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amazon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.amazon.ca/s?k=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Best Buy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestbuy.ca/en-ca/search?search=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walmart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.walmart.ca/search?q=</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Site Name</t>
+  </si>
+  <si>
+    <t>Site Url</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/s?k=</t>
+  </si>
+  <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.ca/en-ca/search?search=</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>https://www.walmart.ca/search?q=</t>
+  </si>
+  <si>
+    <t>E Bay</t>
+  </si>
+  <si>
+    <t>https://www.ebay.ca/sch/i.html?_nkw=</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="3" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:u/>
-      <x:sz val="11"/>
-      <x:color theme="10"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,66 +387,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C4"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="G15" sqref="G15 G15:G15"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <x:cols>
-    <x:col min="1" max="1" width="10.132812" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="43.863281" style="3" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <x:c r="A1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <x:c r="A2" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <x:c r="A3" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <x:c r="A4" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:7"/>
-  </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId5"/>
-  </x:hyperlinks>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.86328125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{870932C2-BC93-46D0-919F-CF483626818D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/websiteUrls.xlsx
+++ b/websiteUrls.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/665277784fd4b0a6/UTM/2021-2022/Winter/PyJaC/PyJaC-Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_3F0F94BAF411BD3EEDFB7B6EA5297EBD5E909C6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD74E885-C638-4B31-B99B-6A173E902B27}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="17281" windowHeight="10185" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="websiteUrls" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="websiteUrls" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,53 +27,50 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t xml:space="preserve">Site Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.ca/s?k=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best Buy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bestbuy.ca/en-ca/search?search=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walmart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.walmart.ca/search?q=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebay.ca/sch/i.html?_nkw=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gamingshop.ca/search?type=product&amp;options%5Bprefix%5D=last&amp;q=</t>
+    <t>Site Name</t>
+  </si>
+  <si>
+    <t>Site Url</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/s?k=</t>
+  </si>
+  <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.ca/en-ca/search?search=</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>https://www.walmart.ca/search?q=</t>
+  </si>
+  <si>
+    <t>E Bay</t>
+  </si>
+  <si>
+    <t>https://www.ebay.ca/sch/i.html?_nkw=</t>
+  </si>
+  <si>
+    <t>Game shop</t>
+  </si>
+  <si>
+    <t>https://gamingshop.ca/search?type=product&amp;options%5Bprefix%5D=last&amp;q=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -77,22 +79,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -109,7 +96,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -117,61 +104,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -230,29 +178,337 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.86"/>
+    <col min="1" max="1" width="10.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -263,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -271,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -279,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -287,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -295,26 +551,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.amazon.ca/s?k="/>
-    <hyperlink ref="B5" r:id="rId2" display="https://www.ebay.ca/sch/i.html?_nkw="/>
-    <hyperlink ref="B6" r:id="rId3" display="https://gamingshop.ca/"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/websiteUrls.xlsx
+++ b/websiteUrls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/665277784fd4b0a6/UTM/2021-2022/Winter/PyJaC/PyJaC-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_3F0F94BAF411BD3EEDFB7B6EA5297EBD5E909C6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD74E885-C638-4B31-B99B-6A173E902B27}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_3F0F94BAF411BD3EEDFB7B6EA5297EBD5E909C6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{673DB4D8-C8FE-4C8B-A123-544044477057}"/>
   <bookViews>
     <workbookView xWindow="1837" yWindow="1837" windowWidth="17281" windowHeight="10185" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
